--- a/Case/imooc.xlsx
+++ b/Case/imooc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16710" windowHeight="7860"/>
+    <workbookView windowWidth="28125" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="imooc" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
   <si>
     <t>case编号</t>
   </si>
@@ -44,6 +44,9 @@
     <t>预期结果方式</t>
   </si>
   <si>
+    <t>预期结果</t>
+  </si>
+  <si>
     <t>result</t>
   </si>
   <si>
@@ -65,7 +68,17 @@
     <t>{"username":"111111"}</t>
   </si>
   <si>
-    <t>message</t>
+    <t>mec</t>
+  </si>
+  <si>
+    <t>{
+  "api3/getbanneradvertver2": [
+    {"1000": "成功"},
+    {"1001": "成功"},
+    {"1006": "token error"},
+    {"1007":"用户名错误"},
+    {"1008": "验证码错误"}
+  ]}</t>
   </si>
   <si>
     <t>imooc_002</t>
@@ -101,19 +114,70 @@
     <t>write</t>
   </si>
   <si>
+    <t>{
+  "api3/newcourseskill": [
+    {"1000": "成功"},
+    {"1001": "成功"},
+    {"1006": "token error"},
+    {"1007":"用户名错误"},
+    {"1010": "验证码错误"}
+  ]}</t>
+  </si>
+  <si>
+    <t>imooc_004</t>
+  </si>
+  <si>
+    <t>评价</t>
+  </si>
+  <si>
+    <t>api3/getdownrecommend</t>
+  </si>
+  <si>
+    <t>{"username":"111114"}</t>
+  </si>
+  <si>
     <t>json</t>
   </si>
   <si>
-    <t>imooc_004</t>
-  </si>
-  <si>
-    <t>评价</t>
-  </si>
-  <si>
-    <t>api3/getdownrecommend</t>
-  </si>
-  <si>
-    <t>{"username":"111114"}</t>
+    <t>{"api3/getdownrecommend":[
+    {
+    "sucess":
+        {
+            "status":0,
+            "data":{
+                "banner":[
+                    {
+                        "id":1709,
+                        "type":6,
+                        "type_id":354,
+                        "name":"Node.js开发仿知乎服务端 深入理解RESTful API",
+                        "pic":"http://szimg.mukewang.com/5d0ed27508f7d96909000300.jpg",
+                        "links":""
+                    }
+                ],
+                "pic":[
+                    {
+                        "pic":"http://www.imooc.com/static/img/andriod/pic/discover_day@3x.png",
+                        "pic_night":"http://www.imooc.com/static/img/andriod/pic/discover_night@3x.png",
+                        "type":5
+                    }
+                ]
+            },
+            "errorCode":1000,
+            "errorDesc":"成功",
+            "timestamp":0
+        }
+    },
+    {
+    "error":{
+        "status":0,
+        "data":"",
+        "errorCode":1002,
+        "errorDesc":"失败",
+        "timestamp":0
+        }
+    }
+]}</t>
   </si>
   <si>
     <t>imooc_005</t>
@@ -128,6 +192,47 @@
     <t>{"username":"111115"}</t>
   </si>
   <si>
+    <t>{"api3/getcourseintro":[
+    {
+    "sucess":
+        {
+            "status":0,
+            "data":{
+                "banner":[
+                    {
+                        "id":1709,
+                        "type":6,
+                        "type_id":354,
+                        "name":"Node.js开发仿知乎服务端 深入理解RESTful API",
+                        "pic":"http://szimg.mukewang.com/5d0ed27508f7d96909000300.jpg",
+                        "links":""
+                    }
+                ],
+                "pic":[
+                    {
+                        "pic":"http://www.imooc.com/static/img/andriod/pic/discover_day@3x.png",
+                        "pic_night":"http://www.imooc.com/static/img/andriod/pic/discover_night@3x.png",
+                        "type":5
+                    }
+                ]
+            },
+            "errorCode":1000,
+            "errorDesc":"成功",
+            "timestamp":0
+        }
+    },
+    {
+    "error":{
+        "status":0,
+        "data":"",
+        "errorCode":1002,
+        "errorDesc":"失败",
+        "timestamp":1
+        }
+    }
+]}</t>
+  </si>
+  <si>
     <t>imooc_006</t>
   </si>
   <si>
@@ -140,6 +245,47 @@
     <t>{"username":"111116"}</t>
   </si>
   <si>
+    <t>{"api3/getmedialist":[
+    {
+    "sucess":
+        {
+            "status":0,
+            "data":{
+                "banner":[
+                    {
+                        "id":1709,
+                        "type":6,
+                        "type_id":354,
+                        "name":"Node.js开发仿知乎服务端 深入理解RESTful API",
+                        "pic":"http://szimg.mukewang.com/5d0ed27508f7d96909000300.jpg",
+                        "links":""
+                    }
+                ],
+                "pic":[
+                    {
+                        "pic":"http://www.imooc.com/static/img/andriod/pic/discover_day@3x.png",
+                        "pic_night":"http://www.imooc.com/static/img/andriod/pic/discover_night@3x.png",
+                        "type":5
+                    }
+                ]
+            },
+            "errorCode":1000,
+            "errorDesc":"成功",
+            "timestamp":0
+        }
+    },
+    {
+    "error":{
+        "status":0,
+        "data":"",
+        "errorCode":1002,
+        "errorDesc":"失败",
+        "timestamp":2
+        }
+    }
+]}</t>
+  </si>
+  <si>
     <t>imooc_007</t>
   </si>
   <si>
@@ -150,6 +296,47 @@
   </si>
   <si>
     <t>{"username":"111117"}</t>
+  </si>
+  <si>
+    <t>{"api3/courselistinfo":[
+    {
+    "sucess":
+        {
+            "status":0,
+            "data":{
+                "banner":[
+                    {
+                        "id":1709,
+                        "type":6,
+                        "type_id":354,
+                        "name":"Node.js开发仿知乎服务端 深入理解RESTful API",
+                        "pic":"http://szimg.mukewang.com/5d0ed27508f7d96909000300.jpg",
+                        "links":""
+                    }
+                ],
+                "pic":[
+                    {
+                        "pic":"http://www.imooc.com/static/img/andriod/pic/discover_day@3x.png",
+                        "pic_night":"http://www.imooc.com/static/img/andriod/pic/discover_night@3x.png",
+                        "type":5
+                    }
+                ]
+            },
+            "errorCode":1000,
+            "errorDesc":"成功",
+            "timestamp":0
+        }
+    },
+    {
+    "error":{
+        "status":0,
+        "data":"",
+        "errorCode":1002,
+        "errorDesc":"失败",
+        "timestamp":3
+        }
+    }
+]}</t>
   </si>
 </sst>
 </file>
@@ -158,9 +345,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -174,6 +361,36 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -196,91 +413,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,7 +450,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,14 +473,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,187 +519,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,21 +710,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -556,17 +728,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,40 +781,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,10 +818,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="7">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -643,141 +830,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -789,6 +979,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1109,41 +1305,45 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
     <col min="3" max="4" width="11.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="36.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.125" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.625" customWidth="1"/>
+    <col min="10" max="10" width="33" style="2" customWidth="1"/>
+    <col min="11" max="11" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
@@ -1152,195 +1352,220 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" ht="40.5" spans="1:9">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" ht="108" spans="1:10">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D2"/>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" ht="40.5" spans="1:10">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
+      <c r="G3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1006</v>
       </c>
     </row>
-    <row r="3" ht="40.5" spans="1:9">
-      <c r="A3" s="2" t="s">
+    <row r="4" ht="115" customHeight="1" spans="1:11">
+      <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
+      <c r="J4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="8"/>
     </row>
-    <row r="4" ht="108" spans="1:9">
-      <c r="A4" s="2" t="s">
+    <row r="5" ht="102" customHeight="1" spans="1:10">
+      <c r="A5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" t="s">
-        <v>28</v>
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="5" ht="40.5" spans="1:9">
-      <c r="A5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" t="s">
-        <v>28</v>
+    <row r="6" ht="108" customHeight="1" spans="1:10">
+      <c r="A6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="6" ht="40.5" spans="1:9">
-      <c r="A6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="2" t="s">
+    <row r="7" ht="99" customHeight="1" spans="1:10">
+      <c r="A7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" t="s">
-        <v>28</v>
+      <c r="J7" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="7" ht="40.5" spans="1:9">
-      <c r="A7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" ht="40.5" spans="1:9">
-      <c r="A8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>44</v>
+    <row r="8" ht="409.5" spans="1:10">
+      <c r="A8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I8" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Case/imooc.xlsx
+++ b/Case/imooc.xlsx
@@ -36,14 +36,44 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -58,15 +88,76 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -80,103 +171,12 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -187,187 +187,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,6 +378,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -405,17 +420,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -445,39 +478,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
@@ -486,145 +486,145 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="9" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="8" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="4" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="4" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="25" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="23" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="20" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="6" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="10" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="10" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="28" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1191,11 +1191,7 @@
           <t>通过</t>
         </is>
       </c>
-      <c r="N2" s="0" t="inlineStr">
-        <is>
-          <t>{"api3/getbanneradvertver2":{"status":0,"data":{"banner":[{"id":2262,"type":6,"type_id":330,"name":"\u524d\u7aef\u4e0b\u4e00\u4ee3\u5f00\u53d1\u8bed\u8a00TypeScript  \u4ece\u57fa\u7840\u5230axios\u5b9e\u6218","pic":"http:\/\/szimg.mukewang.com\/5cf721df09fc2be500000000.jpg","links":""},{"id":1648,"type":6,"type_id":169,"name":"Python3\u5165\u95e8\u673a\u5668\u5b66\u4e60 \u7ecf\u5178\u7b97\u6cd5\u4e0e\u5e94\u7528","pic":"http:\/\/szimg.mukewang.com\/5d0ed2d9085bd6ed09000300.jpg","links":""},{"id":1875,"type":6,"type_id":316,"name":"\u4ece\u57fa\u7840\u5230\u5b9e\u6218 \u624b\u628a\u624b\u5e26\u4f60\u638c\u63e1\u65b0\u7248Webpack4.0","pic":"http:\/\/szimg.mukewang.com\/5d0ed2ca086a9e6f09000300.jpg","links":""},{"id":1999,"type":6,"type_id":342,"name":"\u7eaf\u6b63\u5546\u4e1a\u7ea7\u5e94\u7528 Node.js Koa2\u5f00\u53d1\u5fae\u4fe1\u5c0f\u7a0b\u5e8f\u670d\u52a1\u7aef","pic":"http:\/\/szimg.mukewang.com\/5ceb5d370955f30f09000300.jpg","links":""},{"id":2158,"type":99,"type_id":0,"name":"Spring Cloud\u5fae\u670d\u52a1\u5f00\u53d1\u5b9e\u8df5","pic":"http:\/\/img2.mukewang.com\/5d088c4009bbebc009000300.jpg","links":"https:\/\/www.imooc.com\/read\/37"},{"id":1709,"type":6,"type_id":354,"name":"Node.js\u5f00\u53d1\u4eff\u77e5\u4e4e\u670d\u52a1\u7aef \u6df1\u5165\u7406\u89e3RESTful API","pic":"http:\/\/szimg.mukewang.com\/5d0ed27508f7d96909000300.jpg","links":""}],"pic":[{"pic":"http:\/\/www.imooc.com\/static\/img\/andriod\/pic\/actual_day@3x.png","pic_night":"http:\/\/www.imooc.com\/static\/img\/andriod\/pic\/actual_night@3x.png","type":2},{"pic":"http:\/\/www.imooc.com\/static\/img\/andriod\/pic\/path_day@3x.png","pic_night":"http:\/\/www.imooc.com\/static\/img\/andriod\/pic\/path_night@3x.png","type":6},{"pic":"http:\/\/www.imooc.com\/static\/img\/andriod\/pic\/question_day@3x.png","pic_night":"http:\/\/www.imooc.com\/static\/img\/andriod\/pic\/question_night@3x.png","type":3},{"pic":"http:\/\/www.imooc.com\/static\/img\/andriod\/pic\/note_day@3x.png","pic_night":"http:\/\/www.imooc.com\/static\/img\/andriod\/pic\/note_night@3x.png","type":4},{"pic":"http:\/\/www.imooc.com\/static\/img\/andriod\/pic\/discover_day@3x.png","pic_night":"http:\/\/www.imooc.com\/static\/img\/andriod\/pic\/discover_night@3x.png","type":5}]},"errorCode":1001,"errorDesc":"\u6210\u529f","timestamp":1561269343507}}</t>
-        </is>
-      </c>
+      <c r="N2" s="0" t="n"/>
     </row>
     <row customHeight="1" ht="60" r="3" s="1">
       <c r="A3" s="0" t="inlineStr">
@@ -1215,7 +1211,7 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>imooc_005&gt;data.banner.[0].id</t>
+          <t>imooc_005&gt;status</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -1280,7 +1276,7 @@
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>imooc_005&gt;data.banner.[0].id</t>
+          <t>imooc_005&gt;status</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -1421,7 +1417,7 @@
       </c>
       <c r="N5" s="0" t="inlineStr">
         <is>
-          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1595575901940}</t>
+          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1595926330161}</t>
         </is>
       </c>
     </row>
@@ -1474,53 +1470,44 @@
       <c r="L6" s="3" t="inlineStr">
         <is>
           <t>{"api3/getcourseintro":[
-  {
-  "sucess":
-      {
-          "status":0,
-          "data":{
-              "banner":[
-                  {
-                      "id":1709,
-                      "type":6,
-                      "type_id":354,
-                      "name":"Node.js开发仿知乎服务端 深入理解RESTful API",
-                      "pic":"http://szimg.mukewang.com/5d0ed27508f7d96909000300.jpg",
-                      "links":""
-                  }
-              ],
-              "pic":[
-                  {
-                      "pic":"http://www.imooc.com/static/img/andriod/pic/discover_day@3x.png",
-                      "pic_night":"http://www.imooc.com/static/img/andriod/pic/discover_night@3x.png",
-                      "type":5
-                  }
-              ]
-          },
-          "errorCode":1000,
-          "errorDesc":"成功",
-          "timestamp":0
-      }
-  },
-  {
-  "error":{
-      "status":0,
-      "data":"",
-      "errorCode":1002,
-      "errorDesc":"失败",
-      "timestamp":0
-      }
- }]}</t>
+    {
+    "sucess":
+        {
+            "status":0,
+            "data":{
+                "banner":[
+                    {
+                        "id":1709,
+                        "type":6,
+                        "type_id":354,
+                        "name":"Node.js开发仿知乎服务端 深入理解RESTful API",
+                        "pic":"http://szimg.mukewang.com/5d0ed27508f7d96909000300.jpg",
+                        "links":""
+                    }
+                ],
+                "pic":[
+                    {
+                        "pic":"http://www.imooc.com/static/img/andriod/pic/discover_day@3x.png",
+                        "pic_night":"http://www.imooc.com/static/img/andriod/pic/discover_night@3x.png",
+                        "type":5
+                    }
+                ]
+            },
+            "errorCode":1000,
+            "errorDesc":"成功",
+            "timestamp":1
+        }
+    }]}</t>
         </is>
       </c>
       <c r="M6" s="0" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>失败</t>
         </is>
       </c>
       <c r="N6" s="0" t="inlineStr">
         <is>
-          <t>{"status": 1, "data": {"id": "1134", "course_name": "\u6781\u901f\u5165\u95e8SpringCloud\u4e4bAPI\u7f51\u5173\u4e0e\u670d\u52a1\u53d1\u73b0", "pic": "http://img.mukewang.com/5d0771a608ce48cb02000114-228-128.jpg", "easy_type": "2", "share_url": "http://www.imooc.com/learn/1134", "course_des": "\u57fa\u4e8eSpringBoot\u7684SpringCloud\u662f\u5fae\u670d\u52a1\u67b6\u6784\u7684\u96c6\u5927\u6210\u8005\uff0c\u5c06\u4e00\u7cfb\u5217\u4f18\u79c0\u7684\u7ec4\u4ef6\u8fdb\u884c\u4e86\u6574\u5408\u3002\u672c\u8bfe\u7a0b\u5148\u4ecb\u7ecd\u4e86\u5fae\u670d\u52a1\u67b6\u6784SpringCloud\u5404\u4e2a\u7ec4\u4ef6\u7684\u5e94\u7528\u573a\u666f\uff0c\u5176\u6b21\u6316\u6398\u4e1a\u754c\u5185\u5404\u4e2a\u7ec4\u4ef6\u7684\u4f7f\u7528\u60c5\u51b5\uff0c\u7136\u540e\u4ecb\u7ecd\u7ec4\u4ef6\u7684\u67b6\u6784\u53ca\u5b9e\u73b0\u539f\u7406\uff0c\u6700\u540e\u901a\u8fc7\u7b80\u5355\u7684\u5b9e\u4f8b\u6765\u719f\u6089\u8be5\u7ec4\u4ef6\uff0c\u4e3a\u5206\u6790\u6e90\u7801\u6216\u8005\u5b9a\u5236\u7ec4\u4ef6\u63d0\u4f9b\u4e86\u57fa\u7840\u3002", "finished": "0", "numbers": 1270, "duration": "1\u5c0f\u65f630\u5206", "precondition": "1.\u5177\u5907\u57fa\u7840Java\u77e5\u8bc6\r\n2.\u4e86\u89e3Spring\u57fa\u672c\u77e5\u8bc6\r\n3.\u4e86\u89e3SpringBoot\u76f8\u5173\u77e5\u8bc6\r\n", "purpose": "1.\u5206\u5e03\u5f0f\u67b6\u6784\u7684\u524d\u4e16\u4eca\u751f\uff1aSpringCloud\u5fae\u670d\u52a1\u6846\u67b6\u548cDubbo\u7684\u6bd4\u8f83\r\n2.SpringCloud\u5fae\u670d\u52a1\u67b6\u6784\u76f8\u5173\u6280\u672f\r\n3.API\u7f51\u5173:\u5e94\u7528\u573a\u666f+\u4e1a\u754c\u4f7f\u7528\u60c5\u51b5+\u5b9e\u6218\u4e0e\u539f\u7406\u5206\u6790\uff08\u6db5\u76d6\uff1aZUUL1.X,ZUUL 2.X,GATEWAY\uff09\r\n4.\u670d\u52a1\u53d1\u73b0\uff1a\u5e94\u7528\u573a\u666f+\u4e1a\u754c\u4f7f\u7528\u60c5\u51b5+\u5b9e\u6218\u4e0e\u9009\u578b\uff08\u6db5\u76d6\uff1aEUREKA,ZK,CONSUL\uff0cETCD\uff09", "isfollow": 0, "teacher_list": [{"uid": 7900275, "nickname": "david\u5927\u536b", "aboutme": "\u6155\u8bfe\u7f51\u8bb2\u5e08David\uff0c\u67d0\u77e5\u540d\u4e92\u8054\u7f51\u516c\u53f8\u7684\u67b6\u6784\u5e08\uff0c\u5341\u5e74\u67b6\u6784\u7ecf\u9a8c\u3002\u4e3b\u8981\u8d1f\u8d23\u7531\u4f20\u7edf\u67b6\u6784\u5411\u5fae\u670d\u52a1\u67b6\u6784\u8f6c\u53d8\u3002\u65e2\u4fdd\u8bc1\u73b0\u6709\u670d\u52a1\u7684\u9ad8\u53ef\u7528\u53c8\u8981\u8fdb\u884c\u5fae\u670d\u52a1\u6539\u9020\uff0c\u5b9e\u73b0\u9ad8\u901f\u884c\u9a76\u4e2d\u66f4\u6362\u8f6e\u80ce\r\n\u4fe1\u5949\u201c\u4e00\u5929\u4e0d\u8fdb\u6b65\uff0c\u5c31\u662f\u9000\u6b65\u201d\u3002\u4e1a\u4f59\u7231\u597d\uff1a\u5199\u535a\u5ba2\u3001\u516c\u4f17\u53f7\uff1b\u78b0\u5230\u95ee\u9898\u559c\u6b22\u7ffb\u6e90\u4ee3\u7801\r\n\u5e0c\u671b\u6211\u7684\u8bfe\u7a0b\u80fd\u7ed9\u5927\u5bb6\u5e26\u6765\u5e2e\u52a9\uff0c\u4e5f\u5e0c\u671b\u80fd\u548c\u5927\u5bb6\u4e92\u76f8\u966a\u4f34\uff0c\u5728\u6280\u672f\u95ee\u9898\u4e0a\u8c08\u5929\u8bf4\u5730", "pic": "http://img2.mukewang.com/5cfe2ab00001bd1606380638-100-100.jpg", "job": "JAVA\u5f00\u53d1\u5de5\u7a0b\u5e08", "sex": 0, "is_v": 1}], "satisfied_score": "10.0", "easy_type_zh": "\u521d\u7ea7", "count": "1", "score": {"uid": "105438", "content": "\u4e0d\u9519\u4e0d\u9519\u4e0d\u9519\u4e0d\u9519\u4e0d\u9519\u4e0d\u9519", "satisfied_score": 10, "nickname": "\u575a\u63012016", "user_type": "1", "img": "http://img3.mukewang.com/533e4cc800016ffd02200220-100-100.jpg"}}, "errorCode": 1000, "errorDesc": "\u6210\u529f", "timestamp": 1561274619697, "hash": "1906231523325044"}</t>
+          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1595926330524}</t>
         </is>
       </c>
     </row>
